--- a/back/excel/2019122301.xlsx
+++ b/back/excel/2019122301.xlsx
@@ -41,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -53,6 +53,69 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -371,7 +434,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="16"/>
     <col customWidth="1" max="5" min="5" style="1" width="13"/>
@@ -493,7 +556,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
@@ -512,7 +575,14 @@
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="H8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>客户：</t>
         </is>

--- a/back/excel/2019122301.xlsx
+++ b/back/excel/2019122301.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -41,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -56,86 +56,28 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -428,179 +370,361 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="16"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="60" r="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="60" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>荆州市砼盟工程设备有限公司维修清单</t>
         </is>
       </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>维修订单号</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2019122301</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>2019-12-23</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>维修订单号</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>2019122301</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>客户信息</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>客户名称</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="3" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>客户联系人及电话</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>张三    1234</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>客户联系人</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>张三</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>电话</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>型号</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>1234</t>
         </is>
       </c>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>车牌号码</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>型号</t>
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>地址/电话</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>出厂编号</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="3" t="n"/>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="4" t="inlineStr">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>联系人：付良彪    电话：13666668888</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>维修内容</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>维修内容</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>维修费</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>更换搅拌轴密封</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>免费</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>材料费用</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>材料名称</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>单价</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>金额</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">电磁换向阀DG4V-3-2AL-M-U-H7-60 　</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>330</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>免费</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>客户：</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="22">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A2:E3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>